--- a/Code/Results/Cases/Case_4_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013265840505137</v>
+        <v>1.041925038812121</v>
       </c>
       <c r="D2">
-        <v>1.035288143384154</v>
+        <v>1.050579452143432</v>
       </c>
       <c r="E2">
-        <v>1.032354538128239</v>
+        <v>1.055529133488696</v>
       </c>
       <c r="F2">
-        <v>1.041939639172309</v>
+        <v>1.062973901854342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05598756438362</v>
+        <v>1.042337975978828</v>
       </c>
       <c r="J2">
-        <v>1.035056885005125</v>
+        <v>1.047003623203102</v>
       </c>
       <c r="K2">
-        <v>1.046276810989272</v>
+        <v>1.05333333687903</v>
       </c>
       <c r="L2">
-        <v>1.043380799728814</v>
+        <v>1.058269341153489</v>
       </c>
       <c r="M2">
-        <v>1.052844046365333</v>
+        <v>1.065693797644145</v>
       </c>
       <c r="N2">
-        <v>1.015432767589871</v>
+        <v>1.019555802400911</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017736858165249</v>
+        <v>1.042874809112019</v>
       </c>
       <c r="D3">
-        <v>1.038776187180982</v>
+        <v>1.05133041677942</v>
       </c>
       <c r="E3">
-        <v>1.036345766942601</v>
+        <v>1.056426325765546</v>
       </c>
       <c r="F3">
-        <v>1.045946707382731</v>
+        <v>1.063864524263542</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05736241999757</v>
+        <v>1.042544297928471</v>
       </c>
       <c r="J3">
-        <v>1.037755405702564</v>
+        <v>1.04759962028164</v>
       </c>
       <c r="K3">
-        <v>1.048935841757279</v>
+        <v>1.053896934686771</v>
       </c>
       <c r="L3">
-        <v>1.04653379485575</v>
+        <v>1.058979779180804</v>
       </c>
       <c r="M3">
-        <v>1.056023599984687</v>
+        <v>1.066399150296461</v>
       </c>
       <c r="N3">
-        <v>1.01633951539349</v>
+        <v>1.019754837191647</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0205720722927</v>
+        <v>1.043489812084441</v>
       </c>
       <c r="D4">
-        <v>1.04098840492821</v>
+        <v>1.051816380963933</v>
       </c>
       <c r="E4">
-        <v>1.03888139364641</v>
+        <v>1.057007552862196</v>
       </c>
       <c r="F4">
-        <v>1.048490863427321</v>
+        <v>1.064441286907223</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05822051608696</v>
+        <v>1.042676199954207</v>
       </c>
       <c r="J4">
-        <v>1.039463790174599</v>
+        <v>1.04798508137158</v>
       </c>
       <c r="K4">
-        <v>1.050616078120132</v>
+        <v>1.054260994856939</v>
       </c>
       <c r="L4">
-        <v>1.048532152709272</v>
+        <v>1.059439527246414</v>
       </c>
       <c r="M4">
-        <v>1.058037257888547</v>
+        <v>1.066855392174973</v>
       </c>
       <c r="N4">
-        <v>1.016913427034152</v>
+        <v>1.019883519279232</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021750632032143</v>
+        <v>1.043748463203166</v>
       </c>
       <c r="D5">
-        <v>1.041908022714385</v>
+        <v>1.052020688408996</v>
       </c>
       <c r="E5">
-        <v>1.039936499908415</v>
+        <v>1.057252063020434</v>
       </c>
       <c r="F5">
-        <v>1.049549145406605</v>
+        <v>1.064683869073666</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05857386934255</v>
+        <v>1.042731267328746</v>
       </c>
       <c r="J5">
-        <v>1.040173230101944</v>
+        <v>1.048147083007652</v>
       </c>
       <c r="K5">
-        <v>1.051313058921602</v>
+        <v>1.054413894935348</v>
       </c>
       <c r="L5">
-        <v>1.049362552046793</v>
+        <v>1.059632815449192</v>
       </c>
       <c r="M5">
-        <v>1.058873640752263</v>
+        <v>1.067047154685413</v>
       </c>
       <c r="N5">
-        <v>1.017151719784371</v>
+        <v>1.01993759130012</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021947747262137</v>
+        <v>1.0437918979258</v>
       </c>
       <c r="D6">
-        <v>1.042061829884167</v>
+        <v>1.05205499296123</v>
       </c>
       <c r="E6">
-        <v>1.040113029900286</v>
+        <v>1.057293126827965</v>
       </c>
       <c r="F6">
-        <v>1.049726184619373</v>
+        <v>1.064724606162241</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058632769962654</v>
+        <v>1.042740490831066</v>
       </c>
       <c r="J6">
-        <v>1.040291841812197</v>
+        <v>1.048174281056847</v>
       </c>
       <c r="K6">
-        <v>1.051429541878486</v>
+        <v>1.054439558654715</v>
       </c>
       <c r="L6">
-        <v>1.049501418970177</v>
+        <v>1.059665269948012</v>
       </c>
       <c r="M6">
-        <v>1.059013486103929</v>
+        <v>1.067079349980409</v>
       </c>
       <c r="N6">
-        <v>1.017191557938684</v>
+        <v>1.019946668698907</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020587872157746</v>
+        <v>1.043493267786472</v>
       </c>
       <c r="D7">
-        <v>1.041000733349506</v>
+        <v>1.051819110899992</v>
       </c>
       <c r="E7">
-        <v>1.038895534263408</v>
+        <v>1.057010819382971</v>
       </c>
       <c r="F7">
-        <v>1.04850504808724</v>
+        <v>1.064444527867096</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058225266446181</v>
+        <v>1.042676937277828</v>
       </c>
       <c r="J7">
-        <v>1.039473303837352</v>
+        <v>1.047987246228173</v>
       </c>
       <c r="K7">
-        <v>1.050625427767293</v>
+        <v>1.054263038509289</v>
       </c>
       <c r="L7">
-        <v>1.048543286304987</v>
+        <v>1.059442109934567</v>
       </c>
       <c r="M7">
-        <v>1.058048473195674</v>
+        <v>1.066857954679956</v>
       </c>
       <c r="N7">
-        <v>1.016916622707878</v>
+        <v>1.019884241894578</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014789113919726</v>
+        <v>1.042245926818295</v>
       </c>
       <c r="D8">
-        <v>1.036476414796193</v>
+        <v>1.050833235043715</v>
       </c>
       <c r="E8">
-        <v>1.033713346941924</v>
+        <v>1.055832201418232</v>
       </c>
       <c r="F8">
-        <v>1.043304158144116</v>
+        <v>1.063274793592141</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056458828598738</v>
+        <v>1.042408034748485</v>
       </c>
       <c r="J8">
-        <v>1.035976843506833</v>
+        <v>1.047205081719256</v>
       </c>
       <c r="K8">
-        <v>1.047183958461288</v>
+        <v>1.053523936196943</v>
       </c>
       <c r="L8">
-        <v>1.044455221904718</v>
+        <v>1.058509426542279</v>
       </c>
       <c r="M8">
-        <v>1.053927836083618</v>
+        <v>1.065932209005756</v>
       </c>
       <c r="N8">
-        <v>1.015741915140539</v>
+        <v>1.019623089013219</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004105157294371</v>
+        <v>1.040051352190976</v>
       </c>
       <c r="D9">
-        <v>1.028145759520507</v>
+        <v>1.04909636428316</v>
       </c>
       <c r="E9">
-        <v>1.024204313672461</v>
+        <v>1.053760623611509</v>
       </c>
       <c r="F9">
-        <v>1.033748914726274</v>
+        <v>1.06121723930214</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053097178480832</v>
+        <v>1.04192195481812</v>
       </c>
       <c r="J9">
-        <v>1.029513780079764</v>
+        <v>1.045825404909673</v>
       </c>
       <c r="K9">
-        <v>1.040798119229932</v>
+        <v>1.052216803663048</v>
       </c>
       <c r="L9">
-        <v>1.036916530008326</v>
+        <v>1.056866332031981</v>
       </c>
       <c r="M9">
-        <v>1.046317181572954</v>
+        <v>1.064299691564024</v>
       </c>
       <c r="N9">
-        <v>1.013569593352841</v>
+        <v>1.019162103431637</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9966353212959417</v>
+        <v>1.038590646407887</v>
       </c>
       <c r="D10">
-        <v>1.022328483673052</v>
+        <v>1.047938782498244</v>
       </c>
       <c r="E10">
-        <v>1.017585047961764</v>
+        <v>1.052383215179572</v>
       </c>
       <c r="F10">
-        <v>1.027089809392025</v>
+        <v>1.059848087523257</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0506775191094</v>
+        <v>1.041589713170627</v>
       </c>
       <c r="J10">
-        <v>1.024983073535856</v>
+        <v>1.044904734850812</v>
       </c>
       <c r="K10">
-        <v>1.036305963181706</v>
+        <v>1.051342260586561</v>
       </c>
       <c r="L10">
-        <v>1.031643895445811</v>
+        <v>1.055771281860846</v>
       </c>
       <c r="M10">
-        <v>1.040986588920554</v>
+        <v>1.063210589018252</v>
       </c>
       <c r="N10">
-        <v>1.012046343823437</v>
+        <v>1.018854263363988</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.993310216357278</v>
+        <v>1.037958712449536</v>
       </c>
       <c r="D11">
-        <v>1.019741577322921</v>
+        <v>1.047437633045267</v>
       </c>
       <c r="E11">
-        <v>1.014646126105334</v>
+        <v>1.051787663178751</v>
       </c>
       <c r="F11">
-        <v>1.024131465252891</v>
+        <v>1.059255852484255</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049584721956091</v>
+        <v>1.041443915053396</v>
       </c>
       <c r="J11">
-        <v>1.022963970878665</v>
+        <v>1.044505876412539</v>
       </c>
       <c r="K11">
-        <v>1.03430055826817</v>
+        <v>1.050962846916887</v>
       </c>
       <c r="L11">
-        <v>1.029297024370609</v>
+        <v>1.055297209314768</v>
       </c>
       <c r="M11">
-        <v>1.038612208098669</v>
+        <v>1.062738830961938</v>
       </c>
       <c r="N11">
-        <v>1.01136745711162</v>
+        <v>1.018720847313604</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9920607527666747</v>
+        <v>1.037724069261163</v>
       </c>
       <c r="D12">
-        <v>1.018769969888045</v>
+        <v>1.047251498885273</v>
       </c>
       <c r="E12">
-        <v>1.013542972647514</v>
+        <v>1.051566581425472</v>
       </c>
       <c r="F12">
-        <v>1.023020768677477</v>
+        <v>1.059035964066918</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049171788327676</v>
+        <v>1.041389469015646</v>
       </c>
       <c r="J12">
-        <v>1.022204958319038</v>
+        <v>1.044357693167843</v>
       </c>
       <c r="K12">
-        <v>1.033546190424091</v>
+        <v>1.050821807044695</v>
       </c>
       <c r="L12">
-        <v>1.028415230179314</v>
+        <v>1.055121132498914</v>
       </c>
       <c r="M12">
-        <v>1.037719828842555</v>
+        <v>1.06256357472681</v>
       </c>
       <c r="N12">
-        <v>1.011112248960572</v>
+        <v>1.018671273089198</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9923294300380313</v>
+        <v>1.037774397150798</v>
       </c>
       <c r="D13">
-        <v>1.018978876279484</v>
+        <v>1.0472914245909</v>
       </c>
       <c r="E13">
-        <v>1.013780133255945</v>
+        <v>1.051613998182316</v>
       </c>
       <c r="F13">
-        <v>1.023259562232039</v>
+        <v>1.05908312660081</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049260685854483</v>
+        <v>1.041401160994245</v>
       </c>
       <c r="J13">
-        <v>1.022368184728347</v>
+        <v>1.044389480295276</v>
       </c>
       <c r="K13">
-        <v>1.033708440468903</v>
+        <v>1.050852065480107</v>
       </c>
       <c r="L13">
-        <v>1.028604841387657</v>
+        <v>1.055158900884571</v>
       </c>
       <c r="M13">
-        <v>1.037911727246208</v>
+        <v>1.062601168864448</v>
       </c>
       <c r="N13">
-        <v>1.011167131840179</v>
+        <v>1.018681907717669</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9932072330498473</v>
+        <v>1.037939315026733</v>
       </c>
       <c r="D14">
-        <v>1.019661485551181</v>
+        <v>1.047422246822374</v>
       </c>
       <c r="E14">
-        <v>1.014555177323</v>
+        <v>1.051769385775784</v>
       </c>
       <c r="F14">
-        <v>1.024039899676995</v>
+        <v>1.05923767451255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04955073344198</v>
+        <v>1.041439420441759</v>
       </c>
       <c r="J14">
-        <v>1.022901417377088</v>
+        <v>1.044493628134991</v>
       </c>
       <c r="K14">
-        <v>1.034238397701074</v>
+        <v>1.050951190729323</v>
       </c>
       <c r="L14">
-        <v>1.029224343127595</v>
+        <v>1.055282654441219</v>
       </c>
       <c r="M14">
-        <v>1.038538659396305</v>
+        <v>1.062724344715565</v>
       </c>
       <c r="N14">
-        <v>1.011346424362435</v>
+        <v>1.018716749848971</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9937461485342963</v>
+        <v>1.038040937692416</v>
       </c>
       <c r="D15">
-        <v>1.020080628233818</v>
+        <v>1.047502852753561</v>
       </c>
       <c r="E15">
-        <v>1.015031164777904</v>
+        <v>1.051865142834432</v>
       </c>
       <c r="F15">
-        <v>1.024519104907093</v>
+        <v>1.059332909085187</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049728503363733</v>
+        <v>1.0414629549245</v>
       </c>
       <c r="J15">
-        <v>1.023228750191196</v>
+        <v>1.044557793179937</v>
       </c>
       <c r="K15">
-        <v>1.034563653901162</v>
+        <v>1.051012250688757</v>
       </c>
       <c r="L15">
-        <v>1.029604690446249</v>
+        <v>1.055358905090725</v>
       </c>
       <c r="M15">
-        <v>1.038923536115764</v>
+        <v>1.062800234239396</v>
       </c>
       <c r="N15">
-        <v>1.011456485355305</v>
+        <v>1.01873821491938</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9968540249104628</v>
+        <v>1.038632597685357</v>
       </c>
       <c r="D16">
-        <v>1.022498693708402</v>
+        <v>1.047972044173657</v>
       </c>
       <c r="E16">
-        <v>1.017778513492581</v>
+        <v>1.052422758551748</v>
       </c>
       <c r="F16">
-        <v>1.027284517946912</v>
+        <v>1.059887405324592</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050749074038282</v>
+        <v>1.041599348590964</v>
       </c>
       <c r="J16">
-        <v>1.025115832538055</v>
+        <v>1.044931201589681</v>
       </c>
       <c r="K16">
-        <v>1.036437750569935</v>
+        <v>1.051367425715477</v>
       </c>
       <c r="L16">
-        <v>1.031798265529104</v>
+        <v>1.055802746514412</v>
       </c>
       <c r="M16">
-        <v>1.041142733537927</v>
+        <v>1.063241894576413</v>
       </c>
       <c r="N16">
-        <v>1.012090980871133</v>
+        <v>1.018863115265383</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9987787345768426</v>
+        <v>1.039003881269821</v>
       </c>
       <c r="D17">
-        <v>1.023996936806246</v>
+        <v>1.048266380916558</v>
       </c>
       <c r="E17">
-        <v>1.019481982279872</v>
+        <v>1.052772771342813</v>
       </c>
       <c r="F17">
-        <v>1.028998734846579</v>
+        <v>1.060235392261092</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051377014332438</v>
+        <v>1.041684387047485</v>
       </c>
       <c r="J17">
-        <v>1.026283925246088</v>
+        <v>1.045165377328276</v>
       </c>
       <c r="K17">
-        <v>1.037596900439001</v>
+        <v>1.051590022722796</v>
       </c>
       <c r="L17">
-        <v>1.033156832045418</v>
+        <v>1.05608118176436</v>
       </c>
       <c r="M17">
-        <v>1.042516723255942</v>
+        <v>1.063518891894683</v>
       </c>
       <c r="N17">
-        <v>1.012483718655509</v>
+        <v>1.018941430272252</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.999892695836506</v>
+        <v>1.039220498798825</v>
       </c>
       <c r="D18">
-        <v>1.024864312390761</v>
+        <v>1.048438071256705</v>
       </c>
       <c r="E18">
-        <v>1.020468609934629</v>
+        <v>1.052977012212214</v>
       </c>
       <c r="F18">
-        <v>1.029991422357206</v>
+        <v>1.060438426564744</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051738950508387</v>
+        <v>1.041733801770699</v>
       </c>
       <c r="J18">
-        <v>1.026959757606575</v>
+        <v>1.04530194850098</v>
       </c>
       <c r="K18">
-        <v>1.038267227147248</v>
+        <v>1.051719789214789</v>
       </c>
       <c r="L18">
-        <v>1.033943140525612</v>
+        <v>1.056243597080194</v>
       </c>
       <c r="M18">
-        <v>1.04331179524812</v>
+        <v>1.0636804433144</v>
       </c>
       <c r="N18">
-        <v>1.012710942691688</v>
+        <v>1.018987098559149</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000271076125483</v>
+        <v>1.039294368926735</v>
       </c>
       <c r="D19">
-        <v>1.025158973091182</v>
+        <v>1.048496614659255</v>
       </c>
       <c r="E19">
-        <v>1.020803858032318</v>
+        <v>1.053046667334071</v>
       </c>
       <c r="F19">
-        <v>1.030328701279216</v>
+        <v>1.060507666050205</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051861634103693</v>
+        <v>1.041750619215738</v>
       </c>
       <c r="J19">
-        <v>1.027189279071294</v>
+        <v>1.045348512393487</v>
       </c>
       <c r="K19">
-        <v>1.038494822037901</v>
+        <v>1.051764024232304</v>
       </c>
       <c r="L19">
-        <v>1.034210227288377</v>
+        <v>1.056298977955463</v>
       </c>
       <c r="M19">
-        <v>1.043581830814247</v>
+        <v>1.063735525351207</v>
       </c>
       <c r="N19">
-        <v>1.012788109918037</v>
+        <v>1.019002668298002</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9985731355291514</v>
+        <v>1.038964040453111</v>
       </c>
       <c r="D20">
-        <v>1.023836867850912</v>
+        <v>1.048234800460006</v>
       </c>
       <c r="E20">
-        <v>1.019299941914152</v>
+        <v>1.052735209550539</v>
       </c>
       <c r="F20">
-        <v>1.028815562981215</v>
+        <v>1.060198050400871</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051310091980088</v>
+        <v>1.041675282539789</v>
       </c>
       <c r="J20">
-        <v>1.026159171431016</v>
+        <v>1.045140254505655</v>
       </c>
       <c r="K20">
-        <v>1.037473135998179</v>
+        <v>1.051566147463008</v>
       </c>
       <c r="L20">
-        <v>1.033011707133072</v>
+        <v>1.056051307384554</v>
       </c>
       <c r="M20">
-        <v>1.042369967666136</v>
+        <v>1.063489174394793</v>
       </c>
       <c r="N20">
-        <v>1.012441774270399</v>
+        <v>1.01893302900337</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9929491450169009</v>
+        <v>1.037890748463044</v>
       </c>
       <c r="D21">
-        <v>1.019460774118196</v>
+        <v>1.047383722509104</v>
       </c>
       <c r="E21">
-        <v>1.014327268660731</v>
+        <v>1.051723624326504</v>
       </c>
       <c r="F21">
-        <v>1.023810441344866</v>
+        <v>1.059192161397278</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049465517532095</v>
+        <v>1.041428161991883</v>
       </c>
       <c r="J21">
-        <v>1.022744646407833</v>
+        <v>1.044462959997906</v>
       </c>
       <c r="K21">
-        <v>1.034082603438811</v>
+        <v>1.050922003807493</v>
       </c>
       <c r="L21">
-        <v>1.02904219706809</v>
+        <v>1.055246211684867</v>
       </c>
       <c r="M21">
-        <v>1.038354335423451</v>
+        <v>1.06268807315855</v>
       </c>
       <c r="N21">
-        <v>1.011293712244345</v>
+        <v>1.018706490191688</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9893295549045339</v>
+        <v>1.037216420694555</v>
       </c>
       <c r="D22">
-        <v>1.016647082324275</v>
+        <v>1.04684870383513</v>
       </c>
       <c r="E22">
-        <v>1.011133859709802</v>
+        <v>1.051088369407625</v>
       </c>
       <c r="F22">
-        <v>1.020594727056405</v>
+        <v>1.058560263861604</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048265008164661</v>
+        <v>1.041271109230421</v>
       </c>
       <c r="J22">
-        <v>1.02054533535319</v>
+        <v>1.044036948058764</v>
       </c>
       <c r="K22">
-        <v>1.031895816772223</v>
+        <v>1.050516376493594</v>
       </c>
       <c r="L22">
-        <v>1.026487932983445</v>
+        <v>1.054740102445037</v>
       </c>
       <c r="M22">
-        <v>1.035768948599233</v>
+        <v>1.062184249071804</v>
       </c>
       <c r="N22">
-        <v>1.01055421950604</v>
+        <v>1.018563954811482</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9912565560485848</v>
+        <v>1.037573847525718</v>
       </c>
       <c r="D23">
-        <v>1.018144752011105</v>
+        <v>1.047132318575668</v>
       </c>
       <c r="E23">
-        <v>1.012833290562216</v>
+        <v>1.051425056737755</v>
       </c>
       <c r="F23">
-        <v>1.022306163720188</v>
+        <v>1.058895192596244</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048905371426879</v>
+        <v>1.041354524740848</v>
       </c>
       <c r="J23">
-        <v>1.021716353533048</v>
+        <v>1.044262800855016</v>
       </c>
       <c r="K23">
-        <v>1.033060435843998</v>
+        <v>1.050731466446323</v>
       </c>
       <c r="L23">
-        <v>1.027847707985507</v>
+        <v>1.05500839197306</v>
       </c>
       <c r="M23">
-        <v>1.037145425096304</v>
+        <v>1.062451348626984</v>
       </c>
       <c r="N23">
-        <v>1.010947961328251</v>
+        <v>1.018639525009843</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9986660636862926</v>
+        <v>1.038982042636147</v>
       </c>
       <c r="D24">
-        <v>1.023909216247447</v>
+        <v>1.04824907028221</v>
       </c>
       <c r="E24">
-        <v>1.019382219638275</v>
+        <v>1.052752181847191</v>
       </c>
       <c r="F24">
-        <v>1.028898352628046</v>
+        <v>1.060214923396696</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05134034467566</v>
+        <v>1.041679397052049</v>
       </c>
       <c r="J24">
-        <v>1.026215559264752</v>
+        <v>1.045151606488348</v>
       </c>
       <c r="K24">
-        <v>1.037529077671243</v>
+        <v>1.051576935883361</v>
       </c>
       <c r="L24">
-        <v>1.033077301713226</v>
+        <v>1.05606480630393</v>
       </c>
       <c r="M24">
-        <v>1.042436299797688</v>
+        <v>1.06350260250468</v>
       </c>
       <c r="N24">
-        <v>1.012460732849675</v>
+        <v>1.018936825210811</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006925784353991</v>
+        <v>1.040618293470779</v>
       </c>
       <c r="D25">
-        <v>1.030344131614322</v>
+        <v>1.049545334638021</v>
       </c>
       <c r="E25">
-        <v>1.026709942988746</v>
+        <v>1.054295539915737</v>
       </c>
       <c r="F25">
-        <v>1.036268073258066</v>
+        <v>1.061748723018099</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05399685446802</v>
+        <v>1.042049064355786</v>
       </c>
       <c r="J25">
-        <v>1.031222295291981</v>
+        <v>1.04618224473917</v>
       </c>
       <c r="K25">
-        <v>1.04248897255769</v>
+        <v>1.052555283697871</v>
       </c>
       <c r="L25">
-        <v>1.038907303011277</v>
+        <v>1.057291055350114</v>
       </c>
       <c r="M25">
-        <v>1.048328303609923</v>
+        <v>1.064721875314268</v>
       </c>
       <c r="N25">
-        <v>1.014143935146166</v>
+        <v>1.019281371878453</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_219/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_219/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041925038812121</v>
+        <v>1.013265840505136</v>
       </c>
       <c r="D2">
-        <v>1.050579452143432</v>
+        <v>1.035288143384154</v>
       </c>
       <c r="E2">
-        <v>1.055529133488696</v>
+        <v>1.032354538128238</v>
       </c>
       <c r="F2">
-        <v>1.062973901854342</v>
+        <v>1.041939639172308</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042337975978828</v>
+        <v>1.05598756438362</v>
       </c>
       <c r="J2">
-        <v>1.047003623203102</v>
+        <v>1.035056885005125</v>
       </c>
       <c r="K2">
-        <v>1.05333333687903</v>
+        <v>1.046276810989272</v>
       </c>
       <c r="L2">
-        <v>1.058269341153489</v>
+        <v>1.043380799728814</v>
       </c>
       <c r="M2">
-        <v>1.065693797644145</v>
+        <v>1.052844046365332</v>
       </c>
       <c r="N2">
-        <v>1.019555802400911</v>
+        <v>1.015432767589871</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042874809112019</v>
+        <v>1.017736858165248</v>
       </c>
       <c r="D3">
-        <v>1.05133041677942</v>
+        <v>1.038776187180981</v>
       </c>
       <c r="E3">
-        <v>1.056426325765546</v>
+        <v>1.0363457669426</v>
       </c>
       <c r="F3">
-        <v>1.063864524263542</v>
+        <v>1.045946707382731</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042544297928471</v>
+        <v>1.05736241999757</v>
       </c>
       <c r="J3">
-        <v>1.04759962028164</v>
+        <v>1.037755405702564</v>
       </c>
       <c r="K3">
-        <v>1.053896934686771</v>
+        <v>1.048935841757279</v>
       </c>
       <c r="L3">
-        <v>1.058979779180804</v>
+        <v>1.04653379485575</v>
       </c>
       <c r="M3">
-        <v>1.066399150296461</v>
+        <v>1.056023599984686</v>
       </c>
       <c r="N3">
-        <v>1.019754837191647</v>
+        <v>1.01633951539349</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043489812084441</v>
+        <v>1.020572072292699</v>
       </c>
       <c r="D4">
-        <v>1.051816380963933</v>
+        <v>1.040988404928209</v>
       </c>
       <c r="E4">
-        <v>1.057007552862196</v>
+        <v>1.03888139364641</v>
       </c>
       <c r="F4">
-        <v>1.064441286907223</v>
+        <v>1.04849086342732</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042676199954207</v>
+        <v>1.05822051608696</v>
       </c>
       <c r="J4">
-        <v>1.04798508137158</v>
+        <v>1.039463790174598</v>
       </c>
       <c r="K4">
-        <v>1.054260994856939</v>
+        <v>1.050616078120132</v>
       </c>
       <c r="L4">
-        <v>1.059439527246414</v>
+        <v>1.048532152709272</v>
       </c>
       <c r="M4">
-        <v>1.066855392174973</v>
+        <v>1.058037257888546</v>
       </c>
       <c r="N4">
-        <v>1.019883519279232</v>
+        <v>1.016913427034152</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043748463203166</v>
+        <v>1.021750632032143</v>
       </c>
       <c r="D5">
-        <v>1.052020688408996</v>
+        <v>1.041908022714385</v>
       </c>
       <c r="E5">
-        <v>1.057252063020434</v>
+        <v>1.039936499908414</v>
       </c>
       <c r="F5">
-        <v>1.064683869073666</v>
+        <v>1.049549145406605</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042731267328746</v>
+        <v>1.05857386934255</v>
       </c>
       <c r="J5">
-        <v>1.048147083007652</v>
+        <v>1.040173230101944</v>
       </c>
       <c r="K5">
-        <v>1.054413894935348</v>
+        <v>1.051313058921602</v>
       </c>
       <c r="L5">
-        <v>1.059632815449192</v>
+        <v>1.049362552046792</v>
       </c>
       <c r="M5">
-        <v>1.067047154685413</v>
+        <v>1.058873640752262</v>
       </c>
       <c r="N5">
-        <v>1.01993759130012</v>
+        <v>1.017151719784371</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0437918979258</v>
+        <v>1.021947747262137</v>
       </c>
       <c r="D6">
-        <v>1.05205499296123</v>
+        <v>1.042061829884167</v>
       </c>
       <c r="E6">
-        <v>1.057293126827965</v>
+        <v>1.040113029900286</v>
       </c>
       <c r="F6">
-        <v>1.064724606162241</v>
+        <v>1.049726184619373</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042740490831066</v>
+        <v>1.058632769962654</v>
       </c>
       <c r="J6">
-        <v>1.048174281056847</v>
+        <v>1.040291841812197</v>
       </c>
       <c r="K6">
-        <v>1.054439558654715</v>
+        <v>1.051429541878486</v>
       </c>
       <c r="L6">
-        <v>1.059665269948012</v>
+        <v>1.049501418970176</v>
       </c>
       <c r="M6">
-        <v>1.067079349980409</v>
+        <v>1.059013486103929</v>
       </c>
       <c r="N6">
-        <v>1.019946668698907</v>
+        <v>1.017191557938684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043493267786472</v>
+        <v>1.020587872157745</v>
       </c>
       <c r="D7">
-        <v>1.051819110899992</v>
+        <v>1.041000733349505</v>
       </c>
       <c r="E7">
-        <v>1.057010819382971</v>
+        <v>1.038895534263407</v>
       </c>
       <c r="F7">
-        <v>1.064444527867096</v>
+        <v>1.048505048087239</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042676937277828</v>
+        <v>1.05822526644618</v>
       </c>
       <c r="J7">
-        <v>1.047987246228173</v>
+        <v>1.039473303837351</v>
       </c>
       <c r="K7">
-        <v>1.054263038509289</v>
+        <v>1.050625427767292</v>
       </c>
       <c r="L7">
-        <v>1.059442109934567</v>
+        <v>1.048543286304986</v>
       </c>
       <c r="M7">
-        <v>1.066857954679956</v>
+        <v>1.058048473195673</v>
       </c>
       <c r="N7">
-        <v>1.019884241894578</v>
+        <v>1.016916622707878</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042245926818295</v>
+        <v>1.014789113919726</v>
       </c>
       <c r="D8">
-        <v>1.050833235043715</v>
+        <v>1.036476414796193</v>
       </c>
       <c r="E8">
-        <v>1.055832201418232</v>
+        <v>1.033713346941925</v>
       </c>
       <c r="F8">
-        <v>1.063274793592141</v>
+        <v>1.043304158144116</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042408034748485</v>
+        <v>1.056458828598738</v>
       </c>
       <c r="J8">
-        <v>1.047205081719256</v>
+        <v>1.035976843506833</v>
       </c>
       <c r="K8">
-        <v>1.053523936196943</v>
+        <v>1.047183958461288</v>
       </c>
       <c r="L8">
-        <v>1.058509426542279</v>
+        <v>1.044455221904718</v>
       </c>
       <c r="M8">
-        <v>1.065932209005756</v>
+        <v>1.053927836083618</v>
       </c>
       <c r="N8">
-        <v>1.019623089013219</v>
+        <v>1.015741915140539</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.040051352190976</v>
+        <v>1.00410515729437</v>
       </c>
       <c r="D9">
-        <v>1.04909636428316</v>
+        <v>1.028145759520507</v>
       </c>
       <c r="E9">
-        <v>1.053760623611509</v>
+        <v>1.02420431367246</v>
       </c>
       <c r="F9">
-        <v>1.06121723930214</v>
+        <v>1.033748914726274</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04192195481812</v>
+        <v>1.053097178480832</v>
       </c>
       <c r="J9">
-        <v>1.045825404909673</v>
+        <v>1.029513780079763</v>
       </c>
       <c r="K9">
-        <v>1.052216803663048</v>
+        <v>1.040798119229932</v>
       </c>
       <c r="L9">
-        <v>1.056866332031981</v>
+        <v>1.036916530008325</v>
       </c>
       <c r="M9">
-        <v>1.064299691564024</v>
+        <v>1.046317181572954</v>
       </c>
       <c r="N9">
-        <v>1.019162103431637</v>
+        <v>1.013569593352841</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038590646407887</v>
+        <v>0.9966353212959418</v>
       </c>
       <c r="D10">
-        <v>1.047938782498244</v>
+        <v>1.022328483673052</v>
       </c>
       <c r="E10">
-        <v>1.052383215179572</v>
+        <v>1.017585047961764</v>
       </c>
       <c r="F10">
-        <v>1.059848087523257</v>
+        <v>1.027089809392026</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041589713170627</v>
+        <v>1.0506775191094</v>
       </c>
       <c r="J10">
-        <v>1.044904734850812</v>
+        <v>1.024983073535857</v>
       </c>
       <c r="K10">
-        <v>1.051342260586561</v>
+        <v>1.036305963181706</v>
       </c>
       <c r="L10">
-        <v>1.055771281860846</v>
+        <v>1.031643895445812</v>
       </c>
       <c r="M10">
-        <v>1.063210589018252</v>
+        <v>1.040986588920555</v>
       </c>
       <c r="N10">
-        <v>1.018854263363988</v>
+        <v>1.012046343823437</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037958712449536</v>
+        <v>0.9933102163572777</v>
       </c>
       <c r="D11">
-        <v>1.047437633045267</v>
+        <v>1.019741577322921</v>
       </c>
       <c r="E11">
-        <v>1.051787663178751</v>
+        <v>1.014646126105334</v>
       </c>
       <c r="F11">
-        <v>1.059255852484255</v>
+        <v>1.024131465252891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041443915053396</v>
+        <v>1.049584721956091</v>
       </c>
       <c r="J11">
-        <v>1.044505876412539</v>
+        <v>1.022963970878665</v>
       </c>
       <c r="K11">
-        <v>1.050962846916887</v>
+        <v>1.03430055826817</v>
       </c>
       <c r="L11">
-        <v>1.055297209314768</v>
+        <v>1.029297024370609</v>
       </c>
       <c r="M11">
-        <v>1.062738830961938</v>
+        <v>1.038612208098669</v>
       </c>
       <c r="N11">
-        <v>1.018720847313604</v>
+        <v>1.01136745711162</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037724069261163</v>
+        <v>0.9920607527666736</v>
       </c>
       <c r="D12">
-        <v>1.047251498885273</v>
+        <v>1.018769969888044</v>
       </c>
       <c r="E12">
-        <v>1.051566581425472</v>
+        <v>1.013542972647513</v>
       </c>
       <c r="F12">
-        <v>1.059035964066918</v>
+        <v>1.023020768677476</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041389469015646</v>
+        <v>1.049171788327675</v>
       </c>
       <c r="J12">
-        <v>1.044357693167843</v>
+        <v>1.022204958319038</v>
       </c>
       <c r="K12">
-        <v>1.050821807044695</v>
+        <v>1.03354619042409</v>
       </c>
       <c r="L12">
-        <v>1.055121132498914</v>
+        <v>1.028415230179314</v>
       </c>
       <c r="M12">
-        <v>1.06256357472681</v>
+        <v>1.037719828842554</v>
       </c>
       <c r="N12">
-        <v>1.018671273089198</v>
+        <v>1.011112248960572</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037774397150798</v>
+        <v>0.9923294300380309</v>
       </c>
       <c r="D13">
-        <v>1.0472914245909</v>
+        <v>1.018978876279484</v>
       </c>
       <c r="E13">
-        <v>1.051613998182316</v>
+        <v>1.013780133255945</v>
       </c>
       <c r="F13">
-        <v>1.05908312660081</v>
+        <v>1.023259562232038</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041401160994245</v>
+        <v>1.049260685854483</v>
       </c>
       <c r="J13">
-        <v>1.044389480295276</v>
+        <v>1.022368184728347</v>
       </c>
       <c r="K13">
-        <v>1.050852065480107</v>
+        <v>1.033708440468903</v>
       </c>
       <c r="L13">
-        <v>1.055158900884571</v>
+        <v>1.028604841387657</v>
       </c>
       <c r="M13">
-        <v>1.062601168864448</v>
+        <v>1.037911727246207</v>
       </c>
       <c r="N13">
-        <v>1.018681907717669</v>
+        <v>1.011167131840179</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037939315026733</v>
+        <v>0.9932072330498467</v>
       </c>
       <c r="D14">
-        <v>1.047422246822374</v>
+        <v>1.019661485551181</v>
       </c>
       <c r="E14">
-        <v>1.051769385775784</v>
+        <v>1.014555177322998</v>
       </c>
       <c r="F14">
-        <v>1.05923767451255</v>
+        <v>1.024039899676994</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041439420441759</v>
+        <v>1.04955073344198</v>
       </c>
       <c r="J14">
-        <v>1.044493628134991</v>
+        <v>1.022901417377087</v>
       </c>
       <c r="K14">
-        <v>1.050951190729323</v>
+        <v>1.034238397701073</v>
       </c>
       <c r="L14">
-        <v>1.055282654441219</v>
+        <v>1.029224343127594</v>
       </c>
       <c r="M14">
-        <v>1.062724344715565</v>
+        <v>1.038538659396303</v>
       </c>
       <c r="N14">
-        <v>1.018716749848971</v>
+        <v>1.011346424362435</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038040937692416</v>
+        <v>0.9937461485342963</v>
       </c>
       <c r="D15">
-        <v>1.047502852753561</v>
+        <v>1.020080628233819</v>
       </c>
       <c r="E15">
-        <v>1.051865142834432</v>
+        <v>1.015031164777904</v>
       </c>
       <c r="F15">
-        <v>1.059332909085187</v>
+        <v>1.024519104907093</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0414629549245</v>
+        <v>1.049728503363733</v>
       </c>
       <c r="J15">
-        <v>1.044557793179937</v>
+        <v>1.023228750191196</v>
       </c>
       <c r="K15">
-        <v>1.051012250688757</v>
+        <v>1.034563653901162</v>
       </c>
       <c r="L15">
-        <v>1.055358905090725</v>
+        <v>1.029604690446249</v>
       </c>
       <c r="M15">
-        <v>1.062800234239396</v>
+        <v>1.038923536115763</v>
       </c>
       <c r="N15">
-        <v>1.01873821491938</v>
+        <v>1.011456485355305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038632597685357</v>
+        <v>0.9968540249104624</v>
       </c>
       <c r="D16">
-        <v>1.047972044173657</v>
+        <v>1.022498693708401</v>
       </c>
       <c r="E16">
-        <v>1.052422758551748</v>
+        <v>1.01777851349258</v>
       </c>
       <c r="F16">
-        <v>1.059887405324592</v>
+        <v>1.027284517946911</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041599348590964</v>
+        <v>1.050749074038282</v>
       </c>
       <c r="J16">
-        <v>1.044931201589681</v>
+        <v>1.025115832538054</v>
       </c>
       <c r="K16">
-        <v>1.051367425715477</v>
+        <v>1.036437750569934</v>
       </c>
       <c r="L16">
-        <v>1.055802746514412</v>
+        <v>1.031798265529104</v>
       </c>
       <c r="M16">
-        <v>1.063241894576413</v>
+        <v>1.041142733537926</v>
       </c>
       <c r="N16">
-        <v>1.018863115265383</v>
+        <v>1.012090980871133</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039003881269821</v>
+        <v>0.9987787345768421</v>
       </c>
       <c r="D17">
-        <v>1.048266380916558</v>
+        <v>1.023996936806246</v>
       </c>
       <c r="E17">
-        <v>1.052772771342813</v>
+        <v>1.019481982279871</v>
       </c>
       <c r="F17">
-        <v>1.060235392261092</v>
+        <v>1.028998734846579</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041684387047485</v>
+        <v>1.051377014332437</v>
       </c>
       <c r="J17">
-        <v>1.045165377328276</v>
+        <v>1.026283925246088</v>
       </c>
       <c r="K17">
-        <v>1.051590022722796</v>
+        <v>1.037596900439001</v>
       </c>
       <c r="L17">
-        <v>1.05608118176436</v>
+        <v>1.033156832045417</v>
       </c>
       <c r="M17">
-        <v>1.063518891894683</v>
+        <v>1.042516723255941</v>
       </c>
       <c r="N17">
-        <v>1.018941430272252</v>
+        <v>1.012483718655508</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039220498798825</v>
+        <v>0.9998926958365062</v>
       </c>
       <c r="D18">
-        <v>1.048438071256705</v>
+        <v>1.024864312390761</v>
       </c>
       <c r="E18">
-        <v>1.052977012212214</v>
+        <v>1.020468609934629</v>
       </c>
       <c r="F18">
-        <v>1.060438426564744</v>
+        <v>1.029991422357206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041733801770699</v>
+        <v>1.051738950508387</v>
       </c>
       <c r="J18">
-        <v>1.04530194850098</v>
+        <v>1.026959757606575</v>
       </c>
       <c r="K18">
-        <v>1.051719789214789</v>
+        <v>1.038267227147248</v>
       </c>
       <c r="L18">
-        <v>1.056243597080194</v>
+        <v>1.033943140525612</v>
       </c>
       <c r="M18">
-        <v>1.0636804433144</v>
+        <v>1.04331179524812</v>
       </c>
       <c r="N18">
-        <v>1.018987098559149</v>
+        <v>1.012710942691688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039294368926735</v>
+        <v>1.000271076125482</v>
       </c>
       <c r="D19">
-        <v>1.048496614659255</v>
+        <v>1.025158973091181</v>
       </c>
       <c r="E19">
-        <v>1.053046667334071</v>
+        <v>1.020803858032317</v>
       </c>
       <c r="F19">
-        <v>1.060507666050205</v>
+        <v>1.030328701279215</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041750619215738</v>
+        <v>1.051861634103692</v>
       </c>
       <c r="J19">
-        <v>1.045348512393487</v>
+        <v>1.027189279071293</v>
       </c>
       <c r="K19">
-        <v>1.051764024232304</v>
+        <v>1.0384948220379</v>
       </c>
       <c r="L19">
-        <v>1.056298977955463</v>
+        <v>1.034210227288376</v>
       </c>
       <c r="M19">
-        <v>1.063735525351207</v>
+        <v>1.043581830814246</v>
       </c>
       <c r="N19">
-        <v>1.019002668298002</v>
+        <v>1.012788109918037</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038964040453111</v>
+        <v>0.9985731355291513</v>
       </c>
       <c r="D20">
-        <v>1.048234800460006</v>
+        <v>1.023836867850911</v>
       </c>
       <c r="E20">
-        <v>1.052735209550539</v>
+        <v>1.019299941914152</v>
       </c>
       <c r="F20">
-        <v>1.060198050400871</v>
+        <v>1.028815562981214</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041675282539789</v>
+        <v>1.051310091980088</v>
       </c>
       <c r="J20">
-        <v>1.045140254505655</v>
+        <v>1.026159171431016</v>
       </c>
       <c r="K20">
-        <v>1.051566147463008</v>
+        <v>1.037473135998179</v>
       </c>
       <c r="L20">
-        <v>1.056051307384554</v>
+        <v>1.033011707133071</v>
       </c>
       <c r="M20">
-        <v>1.063489174394793</v>
+        <v>1.042369967666136</v>
       </c>
       <c r="N20">
-        <v>1.01893302900337</v>
+        <v>1.012441774270398</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037890748463044</v>
+        <v>0.9929491450169009</v>
       </c>
       <c r="D21">
-        <v>1.047383722509104</v>
+        <v>1.019460774118197</v>
       </c>
       <c r="E21">
-        <v>1.051723624326504</v>
+        <v>1.014327268660732</v>
       </c>
       <c r="F21">
-        <v>1.059192161397278</v>
+        <v>1.023810441344866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041428161991883</v>
+        <v>1.049465517532095</v>
       </c>
       <c r="J21">
-        <v>1.044462959997906</v>
+        <v>1.022744646407833</v>
       </c>
       <c r="K21">
-        <v>1.050922003807493</v>
+        <v>1.034082603438811</v>
       </c>
       <c r="L21">
-        <v>1.055246211684867</v>
+        <v>1.02904219706809</v>
       </c>
       <c r="M21">
-        <v>1.06268807315855</v>
+        <v>1.038354335423451</v>
       </c>
       <c r="N21">
-        <v>1.018706490191688</v>
+        <v>1.011293712244345</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037216420694555</v>
+        <v>0.9893295549045339</v>
       </c>
       <c r="D22">
-        <v>1.04684870383513</v>
+        <v>1.016647082324275</v>
       </c>
       <c r="E22">
-        <v>1.051088369407625</v>
+        <v>1.011133859709801</v>
       </c>
       <c r="F22">
-        <v>1.058560263861604</v>
+        <v>1.020594727056405</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041271109230421</v>
+        <v>1.048265008164661</v>
       </c>
       <c r="J22">
-        <v>1.044036948058764</v>
+        <v>1.020545335353189</v>
       </c>
       <c r="K22">
-        <v>1.050516376493594</v>
+        <v>1.031895816772223</v>
       </c>
       <c r="L22">
-        <v>1.054740102445037</v>
+        <v>1.026487932983444</v>
       </c>
       <c r="M22">
-        <v>1.062184249071804</v>
+        <v>1.035768948599233</v>
       </c>
       <c r="N22">
-        <v>1.018563954811482</v>
+        <v>1.01055421950604</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037573847525718</v>
+        <v>0.9912565560485846</v>
       </c>
       <c r="D23">
-        <v>1.047132318575668</v>
+        <v>1.018144752011104</v>
       </c>
       <c r="E23">
-        <v>1.051425056737755</v>
+        <v>1.012833290562216</v>
       </c>
       <c r="F23">
-        <v>1.058895192596244</v>
+        <v>1.022306163720188</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041354524740848</v>
+        <v>1.048905371426879</v>
       </c>
       <c r="J23">
-        <v>1.044262800855016</v>
+        <v>1.021716353533048</v>
       </c>
       <c r="K23">
-        <v>1.050731466446323</v>
+        <v>1.033060435843998</v>
       </c>
       <c r="L23">
-        <v>1.05500839197306</v>
+        <v>1.027847707985507</v>
       </c>
       <c r="M23">
-        <v>1.062451348626984</v>
+        <v>1.037145425096304</v>
       </c>
       <c r="N23">
-        <v>1.018639525009843</v>
+        <v>1.010947961328251</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038982042636147</v>
+        <v>0.998666063686292</v>
       </c>
       <c r="D24">
-        <v>1.04824907028221</v>
+        <v>1.023909216247447</v>
       </c>
       <c r="E24">
-        <v>1.052752181847191</v>
+        <v>1.019382219638274</v>
       </c>
       <c r="F24">
-        <v>1.060214923396696</v>
+        <v>1.028898352628046</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041679397052049</v>
+        <v>1.05134034467566</v>
       </c>
       <c r="J24">
-        <v>1.045151606488348</v>
+        <v>1.026215559264752</v>
       </c>
       <c r="K24">
-        <v>1.051576935883361</v>
+        <v>1.037529077671242</v>
       </c>
       <c r="L24">
-        <v>1.05606480630393</v>
+        <v>1.033077301713226</v>
       </c>
       <c r="M24">
-        <v>1.06350260250468</v>
+        <v>1.042436299797687</v>
       </c>
       <c r="N24">
-        <v>1.018936825210811</v>
+        <v>1.012460732849675</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040618293470779</v>
+        <v>1.006925784353992</v>
       </c>
       <c r="D25">
-        <v>1.049545334638021</v>
+        <v>1.030344131614323</v>
       </c>
       <c r="E25">
-        <v>1.054295539915737</v>
+        <v>1.026709942988747</v>
       </c>
       <c r="F25">
-        <v>1.061748723018099</v>
+        <v>1.036268073258066</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042049064355786</v>
+        <v>1.053996854468021</v>
       </c>
       <c r="J25">
-        <v>1.04618224473917</v>
+        <v>1.031222295291982</v>
       </c>
       <c r="K25">
-        <v>1.052555283697871</v>
+        <v>1.04248897255769</v>
       </c>
       <c r="L25">
-        <v>1.057291055350114</v>
+        <v>1.038907303011278</v>
       </c>
       <c r="M25">
-        <v>1.064721875314268</v>
+        <v>1.048328303609924</v>
       </c>
       <c r="N25">
-        <v>1.019281371878453</v>
+        <v>1.014143935146166</v>
       </c>
     </row>
   </sheetData>
